--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H2">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I2">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J2">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N2">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O2">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P2">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q2">
-        <v>661.6660077859083</v>
+        <v>373.0356602575626</v>
       </c>
       <c r="R2">
-        <v>5954.994070073175</v>
+        <v>3357.320942318063</v>
       </c>
       <c r="S2">
-        <v>0.1012834689883243</v>
+        <v>0.0770008004441719</v>
       </c>
       <c r="T2">
-        <v>0.1066573232213329</v>
+        <v>0.08015807734249097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H3">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I3">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J3">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.217391</v>
       </c>
       <c r="O3">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P3">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q3">
-        <v>61.91066037152699</v>
+        <v>55.17878025600599</v>
       </c>
       <c r="R3">
-        <v>557.1959433437429</v>
+        <v>496.6090223040539</v>
       </c>
       <c r="S3">
-        <v>0.009476875607935342</v>
+        <v>0.01138982327939355</v>
       </c>
       <c r="T3">
-        <v>0.009979695550914099</v>
+        <v>0.01185684213774995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H4">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I4">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J4">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N4">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O4">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P4">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q4">
-        <v>9.201445023679666</v>
+        <v>17.06488456425711</v>
       </c>
       <c r="R4">
-        <v>82.81300521311699</v>
+        <v>153.583961078314</v>
       </c>
       <c r="S4">
-        <v>0.001408496523528797</v>
+        <v>0.003522477636663295</v>
       </c>
       <c r="T4">
-        <v>0.001483227919291079</v>
+        <v>0.003666910385452004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H5">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I5">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J5">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N5">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O5">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P5">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q5">
-        <v>32.066745193181</v>
+        <v>4.322948150260999</v>
       </c>
       <c r="R5">
-        <v>192.400471159086</v>
+        <v>25.937688901566</v>
       </c>
       <c r="S5">
-        <v>0.00490856588386346</v>
+        <v>0.0008923288127974649</v>
       </c>
       <c r="T5">
-        <v>0.003446001624666474</v>
+        <v>0.0006192780817736392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H6">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I6">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J6">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N6">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O6">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P6">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q6">
-        <v>7.331383385339</v>
+        <v>21.21241346899778</v>
       </c>
       <c r="R6">
-        <v>65.982450468051</v>
+        <v>190.91172122098</v>
       </c>
       <c r="S6">
-        <v>0.001122239820412175</v>
+        <v>0.004378596982759769</v>
       </c>
       <c r="T6">
-        <v>0.001181783132559867</v>
+        <v>0.004558133338498567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J7">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N7">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O7">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P7">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q7">
-        <v>1117.875440417689</v>
+        <v>707.1284024720213</v>
       </c>
       <c r="R7">
-        <v>10060.8789637592</v>
+        <v>6364.155622248191</v>
       </c>
       <c r="S7">
-        <v>0.1711170003748916</v>
+        <v>0.1459631311643491</v>
       </c>
       <c r="T7">
-        <v>0.1801960517343031</v>
+        <v>0.151948082221652</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J8">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.217391</v>
       </c>
       <c r="O8">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P8">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q8">
         <v>104.597192412768</v>
@@ -948,10 +948,10 @@
         <v>941.3747317149119</v>
       </c>
       <c r="S8">
-        <v>0.01601104842827623</v>
+        <v>0.02159061022325658</v>
       </c>
       <c r="T8">
-        <v>0.01686055566998728</v>
+        <v>0.02247589368115938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J9">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N9">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O9">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P9">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q9">
-        <v>15.54571231903644</v>
+        <v>32.34828689557689</v>
       </c>
       <c r="R9">
-        <v>139.911410871328</v>
+        <v>291.134582060192</v>
       </c>
       <c r="S9">
-        <v>0.002379635122613096</v>
+        <v>0.006677227539687044</v>
       </c>
       <c r="T9">
-        <v>0.002505892767660233</v>
+        <v>0.006951015034547683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>71.222432</v>
       </c>
       <c r="I10">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J10">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N10">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O10">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P10">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q10">
-        <v>54.17631627403733</v>
+        <v>8.194603747407999</v>
       </c>
       <c r="R10">
-        <v>325.057897644224</v>
+        <v>49.167622484448</v>
       </c>
       <c r="S10">
-        <v>0.008292953219108936</v>
+        <v>0.001691503293378329</v>
       </c>
       <c r="T10">
-        <v>0.005821971415373875</v>
+        <v>0.001173906860132827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>71.222432</v>
       </c>
       <c r="I11">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J11">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N11">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O11">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P11">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q11">
-        <v>12.38626940830933</v>
+        <v>40.21036497838222</v>
       </c>
       <c r="R11">
-        <v>111.476424674784</v>
+        <v>361.89328480544</v>
       </c>
       <c r="S11">
-        <v>0.001896008437391947</v>
+        <v>0.008300091973378455</v>
       </c>
       <c r="T11">
-        <v>0.001996606028182142</v>
+        <v>0.008640422054238737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H12">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I12">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J12">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N12">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O12">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P12">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q12">
-        <v>1551.960563113889</v>
+        <v>1221.751334715659</v>
       </c>
       <c r="R12">
-        <v>13967.645068025</v>
+        <v>10995.76201244093</v>
       </c>
       <c r="S12">
-        <v>0.2375638882995305</v>
+        <v>0.2521899130283856</v>
       </c>
       <c r="T12">
-        <v>0.2501684497299412</v>
+        <v>0.2625304988638655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H13">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I13">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J13">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.217391</v>
       </c>
       <c r="O13">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P13">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q13">
-        <v>145.213600521</v>
+        <v>180.719313481212</v>
       </c>
       <c r="R13">
-        <v>1306.922404689</v>
+        <v>1626.473821330908</v>
       </c>
       <c r="S13">
-        <v>0.02222834032878188</v>
+        <v>0.03730348938802946</v>
       </c>
       <c r="T13">
-        <v>0.02340772193924342</v>
+        <v>0.03883305069897854</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H14">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I14">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J14">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N14">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O14">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P14">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q14">
-        <v>21.58230834344444</v>
+        <v>55.89022100126978</v>
       </c>
       <c r="R14">
-        <v>194.240775091</v>
+        <v>503.011989011428</v>
       </c>
       <c r="S14">
-        <v>0.003303677432537833</v>
+        <v>0.01153667655024729</v>
       </c>
       <c r="T14">
-        <v>0.003478962512449394</v>
+        <v>0.01200971685820986</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H15">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I15">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J15">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N15">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O15">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P15">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q15">
-        <v>75.21366269633333</v>
+        <v>14.158345260722</v>
       </c>
       <c r="R15">
-        <v>451.281976178</v>
+        <v>84.95007156433201</v>
       </c>
       <c r="S15">
-        <v>0.0115132114746134</v>
+        <v>0.00292251930361781</v>
       </c>
       <c r="T15">
-        <v>0.008082716293382869</v>
+        <v>0.002028234572653722</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H16">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I16">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J16">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N16">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O16">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P16">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q16">
-        <v>17.19601393033333</v>
+        <v>69.47404023088446</v>
       </c>
       <c r="R16">
-        <v>154.764125373</v>
+        <v>625.26636207796</v>
       </c>
       <c r="S16">
-        <v>0.002632252410039555</v>
+        <v>0.01434060407033231</v>
       </c>
       <c r="T16">
-        <v>0.002771913313218819</v>
+        <v>0.014928614294616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H17">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I17">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J17">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N17">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O17">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P17">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q17">
-        <v>622.2810080928791</v>
+        <v>419.607907574904</v>
       </c>
       <c r="R17">
-        <v>3733.686048557275</v>
+        <v>2517.647445449424</v>
       </c>
       <c r="S17">
-        <v>0.09525467296725862</v>
+        <v>0.086614091354331</v>
       </c>
       <c r="T17">
-        <v>0.06687243597592049</v>
+        <v>0.06011036243503134</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H18">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I18">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J18">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.217391</v>
       </c>
       <c r="O18">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P18">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q18">
-        <v>58.22549094913649</v>
+        <v>62.067665353419</v>
       </c>
       <c r="R18">
-        <v>349.352945694819</v>
+        <v>372.405992120514</v>
       </c>
       <c r="S18">
-        <v>0.008912774175313195</v>
+        <v>0.01281180440125863</v>
       </c>
       <c r="T18">
-        <v>0.006257109513265932</v>
+        <v>0.008891419328708077</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H19">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I19">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J19">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N19">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O19">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P19">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q19">
-        <v>8.653738317926832</v>
+        <v>19.195377997029</v>
       </c>
       <c r="R19">
-        <v>51.922429907561</v>
+        <v>115.172267982174</v>
       </c>
       <c r="S19">
-        <v>0.001324657192969197</v>
+        <v>0.003962247120232826</v>
       </c>
       <c r="T19">
-        <v>0.000929960185337294</v>
+        <v>0.002749807874564107</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H20">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I20">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J20">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N20">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O20">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P20">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q20">
-        <v>30.1580046281095</v>
+        <v>4.8626536847265</v>
       </c>
       <c r="R20">
-        <v>120.632018512438</v>
+        <v>19.450614738906</v>
       </c>
       <c r="S20">
-        <v>0.004616388465718491</v>
+        <v>0.001003733063343645</v>
       </c>
       <c r="T20">
-        <v>0.00216058790956358</v>
+        <v>0.0004643952447166771</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H21">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I21">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J21">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N21">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O21">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P21">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q21">
-        <v>6.894990206630499</v>
+        <v>23.86071193353</v>
       </c>
       <c r="R21">
-        <v>41.369941239783</v>
+        <v>143.16427160118</v>
       </c>
       <c r="S21">
-        <v>0.001055439630494092</v>
+        <v>0.004925250086763969</v>
       </c>
       <c r="T21">
-        <v>0.000740959124818216</v>
+        <v>0.003418133968379359</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H22">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I22">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J22">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.08665833333333</v>
+        <v>29.785352</v>
       </c>
       <c r="N22">
-        <v>141.259975</v>
+        <v>89.356056</v>
       </c>
       <c r="O22">
-        <v>0.8568847006715773</v>
+        <v>0.7923195065866085</v>
       </c>
       <c r="P22">
-        <v>0.8689126983340025</v>
+        <v>0.7947519366640845</v>
       </c>
       <c r="Q22">
-        <v>1644.084872452075</v>
+        <v>1116.922900338134</v>
       </c>
       <c r="R22">
-        <v>14796.76385206867</v>
+        <v>10052.3061030432</v>
       </c>
       <c r="S22">
-        <v>0.2516656700415723</v>
+        <v>0.2305515705953711</v>
       </c>
       <c r="T22">
-        <v>0.2650184376725048</v>
+        <v>0.2400049158010447</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H23">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I23">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J23">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>13.217391</v>
       </c>
       <c r="O23">
-        <v>0.0801768521528777</v>
+        <v>0.1171985110386058</v>
       </c>
       <c r="P23">
-        <v>0.08130228593588212</v>
+        <v>0.1175583118271966</v>
       </c>
       <c r="Q23">
-        <v>153.833473327347</v>
+        <v>165.2132754228</v>
       </c>
       <c r="R23">
-        <v>1384.501259946123</v>
+        <v>1486.9194788052</v>
       </c>
       <c r="S23">
-        <v>0.02354781361257105</v>
+        <v>0.03410278374666763</v>
       </c>
       <c r="T23">
-        <v>0.02479720326247139</v>
+        <v>0.03550110598060065</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H24">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I24">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J24">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6548096666666666</v>
+        <v>1.362560333333333</v>
       </c>
       <c r="N24">
-        <v>1.964429</v>
+        <v>4.087681</v>
       </c>
       <c r="O24">
-        <v>0.01191624984823596</v>
+        <v>0.03624543805965938</v>
       </c>
       <c r="P24">
-        <v>0.01208351695570926</v>
+        <v>0.03635671197501131</v>
       </c>
       <c r="Q24">
-        <v>22.863433197593</v>
+        <v>51.09474077702223</v>
       </c>
       <c r="R24">
-        <v>205.770898778337</v>
+        <v>459.8526669932</v>
       </c>
       <c r="S24">
-        <v>0.003499783576587039</v>
+        <v>0.01054680921282892</v>
       </c>
       <c r="T24">
-        <v>0.003685473570971261</v>
+        <v>0.01097926182223766</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H25">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I25">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J25">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.281991</v>
+        <v>0.3451695</v>
       </c>
       <c r="N25">
-        <v>4.563982</v>
+        <v>0.690339</v>
       </c>
       <c r="O25">
-        <v>0.04152775423406879</v>
+        <v>0.00918184643004207</v>
       </c>
       <c r="P25">
-        <v>0.0280737832126037</v>
+        <v>0.006140023203404898</v>
       </c>
       <c r="Q25">
-        <v>79.67834233664099</v>
+        <v>12.9435340918</v>
       </c>
       <c r="R25">
-        <v>478.070054019846</v>
+        <v>77.66120455080001</v>
       </c>
       <c r="S25">
-        <v>0.0121966351907645</v>
+        <v>0.002671761956904822</v>
       </c>
       <c r="T25">
-        <v>0.0085625059696169</v>
+        <v>0.001854208444128033</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H26">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I26">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J26">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.521729</v>
+        <v>1.693723333333333</v>
       </c>
       <c r="N26">
-        <v>1.565187</v>
+        <v>5.08117</v>
       </c>
       <c r="O26">
-        <v>0.009494443093240277</v>
+        <v>0.04505469788508434</v>
       </c>
       <c r="P26">
-        <v>0.009627715561802291</v>
+        <v>0.04519301633030275</v>
       </c>
       <c r="Q26">
-        <v>18.216768545079</v>
+        <v>63.51304419155557</v>
       </c>
       <c r="R26">
-        <v>163.950916905711</v>
+        <v>571.6173977240001</v>
       </c>
       <c r="S26">
-        <v>0.002788502794902508</v>
+        <v>0.01311015477184984</v>
       </c>
       <c r="T26">
-        <v>0.002936453963023247</v>
+        <v>0.01364771267457009</v>
       </c>
     </row>
   </sheetData>
